--- a/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
+++ b/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>propertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>fieldType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|burning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +564,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,8 +682,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>

--- a/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
+++ b/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>propertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被火灼伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,15 +134,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fieldType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1|burning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无|力量|敏捷|体质|智力|睿智|魅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum Abillity:{Null=0|Str = 1|Dex = 2|Con = 3|Int =4|Wis = 5|Cha = 6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,7 +585,7 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -594,24 +602,24 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -620,19 +628,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -655,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
@@ -672,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -680,48 +688,30 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1.5</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -733,38 +723,44 @@
         <v>1.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -773,7 +769,27 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
+++ b/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>propertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,22 @@
   </si>
   <si>
     <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaUsage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct ManaUseLevel:{int=lv|int=manaUsage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,9 +602,10 @@
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="29.625" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,8 +633,11 @@
       <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -642,8 +662,11 @@
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,8 +691,11 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,12 +718,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -726,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -752,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -772,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>

--- a/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
+++ b/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>propertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|burning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无|力量|敏捷|体质|智力|睿智|魅力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,27 +146,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaUsage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct ManaUseLevel:{int=lv|int=manaUsage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enum Abillity:{Null=0|Str = 1|Dex = 2|Con = 3|Int =4|Wis = 5|Cha = 6}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManaUsage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct ManaUseLevel:{int=lv|int=manaUsage}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>2|burning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{lv=1;manaUsage=30}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -660,10 +664,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -692,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -715,20 +719,20 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -754,10 +758,13 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -818,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
+++ b/Tools/ConfigLoad/ConfigLoad/bin/Debug/Config/testFile/templeteXLSX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FECFA6-B7B8-4B6C-B3AE-6B649949D3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>propertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,14 +175,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{lv=1;manaUsage=30}</t>
+    <t>1;30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,6 +379,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -413,6 +431,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,6 +756,9 @@
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -836,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -850,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
